--- a/jpcore-r4/feature/swg5-薬剤コードの割当/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/feature/swg5-薬剤コードの割当/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="441">
   <si>
     <t>Property</t>
   </si>
@@ -609,10 +609,7 @@
     <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
   </si>
   <si>
-    <t>The code for vaccine product administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1717,7 +1714,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.24609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.26171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3619,13 +3616,11 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="X17" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
@@ -3658,24 +3653,24 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3698,13 +3693,13 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3755,7 +3750,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>87</v>
@@ -3770,16 +3765,16 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3787,7 +3782,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3810,13 +3805,13 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3867,7 +3862,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3882,16 +3877,16 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3899,7 +3894,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3922,16 +3917,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3981,7 +3976,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>87</v>
@@ -3996,24 +3991,24 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4036,13 +4031,13 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4093,7 +4088,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4114,10 +4109,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4125,7 +4120,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4148,16 +4143,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4207,7 +4202,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4225,13 +4220,13 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4239,7 +4234,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4265,13 +4260,13 @@
         <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4300,11 +4295,11 @@
         <v>182</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4321,7 +4316,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4339,13 +4334,13 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4353,7 +4348,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4376,13 +4371,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4433,7 +4428,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4448,16 +4443,16 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4465,7 +4460,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4488,13 +4483,13 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4545,7 +4540,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4563,21 +4558,21 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4603,10 +4598,10 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4657,7 +4652,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4675,21 +4670,21 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4712,13 +4707,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4769,7 +4764,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4787,10 +4782,10 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4801,7 +4796,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4827,10 +4822,10 @@
         <v>178</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4860,11 +4855,11 @@
         <v>182</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4881,7 +4876,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4899,21 +4894,21 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4939,10 +4934,10 @@
         <v>178</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4972,11 +4967,11 @@
         <v>182</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4993,7 +4988,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5011,21 +5006,21 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5048,13 +5043,13 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5105,7 +5100,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5123,10 +5118,10 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5137,7 +5132,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5160,13 +5155,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5217,7 +5212,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5232,13 +5227,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5249,7 +5244,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5275,10 +5270,10 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5329,28 +5324,28 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5361,7 +5356,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5387,10 +5382,10 @@
         <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>156</v>
@@ -5443,7 +5438,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5464,7 +5459,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5475,11 +5470,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5501,10 +5496,10 @@
         <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>156</v>
@@ -5559,7 +5554,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5591,7 +5586,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5617,10 +5612,10 @@
         <v>178</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5647,14 +5642,14 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5671,7 +5666,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5686,13 +5681,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5703,7 +5698,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5726,16 +5721,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5785,7 +5780,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -5800,16 +5795,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5817,7 +5812,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5840,13 +5835,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5897,7 +5892,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5912,13 +5907,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5929,7 +5924,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5955,10 +5950,10 @@
         <v>178</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5988,11 +5983,11 @@
         <v>182</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6009,7 +6004,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6024,13 +6019,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6041,7 +6036,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6064,13 +6059,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6121,7 +6116,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6136,7 +6131,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6153,7 +6148,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6176,23 +6171,23 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>77</v>
@@ -6237,7 +6232,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6255,7 +6250,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>130</v>
@@ -6269,7 +6264,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6295,10 +6290,10 @@
         <v>178</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6328,11 +6323,11 @@
         <v>182</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6349,7 +6344,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6381,7 +6376,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6404,13 +6399,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6461,7 +6456,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6473,7 +6468,7 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
@@ -6493,7 +6488,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6519,10 +6514,10 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6573,28 +6568,28 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6605,7 +6600,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6631,10 +6626,10 @@
         <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>156</v>
@@ -6687,7 +6682,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6708,7 +6703,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6719,11 +6714,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6745,10 +6740,10 @@
         <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>156</v>
@@ -6803,7 +6798,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6835,7 +6830,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6861,10 +6856,10 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6915,7 +6910,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6933,7 +6928,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>130</v>
@@ -6947,7 +6942,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6973,10 +6968,10 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7027,7 +7022,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7059,7 +7054,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7082,13 +7077,13 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7139,7 +7134,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7157,7 +7152,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>130</v>
@@ -7171,7 +7166,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7194,13 +7189,13 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7251,7 +7246,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7269,7 +7264,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>130</v>
@@ -7283,7 +7278,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7309,10 +7304,10 @@
         <v>178</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7342,11 +7337,11 @@
         <v>182</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7363,7 +7358,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7381,7 +7376,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>130</v>
@@ -7395,7 +7390,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7421,10 +7416,10 @@
         <v>178</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7454,11 +7449,11 @@
         <v>182</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7475,7 +7470,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7507,7 +7502,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7530,16 +7525,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7589,7 +7584,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7607,10 +7602,10 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7621,7 +7616,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7647,10 +7642,10 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7701,28 +7696,28 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7733,7 +7728,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7759,10 +7754,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>156</v>
@@ -7815,7 +7810,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7836,7 +7831,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7847,11 +7842,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7873,10 +7868,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>156</v>
@@ -7931,7 +7926,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -7963,7 +7958,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7986,13 +7981,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8043,7 +8038,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8061,10 +8056,10 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8075,7 +8070,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8098,13 +8093,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8155,7 +8150,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8173,10 +8168,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8187,7 +8182,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8210,13 +8205,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8267,7 +8262,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8285,10 +8280,10 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8299,7 +8294,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8322,13 +8317,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8379,7 +8374,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8411,7 +8406,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8437,10 +8432,10 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8491,28 +8486,28 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8523,7 +8518,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8549,10 +8544,10 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>156</v>
@@ -8605,7 +8600,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8626,7 +8621,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8637,11 +8632,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8663,10 +8658,10 @@
         <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>156</v>
@@ -8721,7 +8716,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8753,7 +8748,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8779,10 +8774,10 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8833,7 +8828,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8865,7 +8860,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8888,13 +8883,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8945,7 +8940,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -8977,7 +8972,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9003,10 +8998,10 @@
         <v>178</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9036,11 +9031,11 @@
         <v>182</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9057,7 +9052,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9089,7 +9084,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9112,16 +9107,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9171,7 +9166,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>87</v>
@@ -9203,7 +9198,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9226,16 +9221,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9285,7 +9280,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
